--- a/CN Miniproject Files/Questions.xlsx
+++ b/CN Miniproject Files/Questions.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Chemistry" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Maths" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="English" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="LR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="GK" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Logical Reasoning" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="General Knowledge" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="test" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,21 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="244">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
   <si>
-    <t xml:space="preserve">Option 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option 4</t>
+    <t xml:space="preserve">Option_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option_4</t>
   </si>
   <si>
     <t xml:space="preserve">Answer</t>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">The phenomenon of ____________ is observed when a light wave changes speed as it passes from one medium to another, causing a change in direction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Refraction</t>
@@ -829,13 +826,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -859,6 +849,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -922,16 +919,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -943,11 +944,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,14 +980,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,10 +1004,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="1" sqref="G1:G18 C28"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9.22"/>
@@ -1211,31 +1200,25 @@
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -1261,54 +1244,54 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G18"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="B10:E10 A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1316,156 +1299,150 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>34</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1490,38 +1467,38 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="G1:G18 D17"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="B10:E10 B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="9.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>271</v>
@@ -1541,69 +1518,69 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>15</v>
@@ -1623,9 +1600,9 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="17" t="n">
+        <v>93</v>
+      </c>
+      <c r="B7" s="15" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="C7" s="8" t="n">
@@ -1634,7 +1611,7 @@
       <c r="D7" s="8" t="n">
         <v>0.8</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="15" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="F7" s="8" t="n">
@@ -1643,16 +1620,14 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1661,7 +1636,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -1681,41 +1656,41 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="16" t="n">
+        <v>102</v>
+      </c>
+      <c r="B11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1743,10 +1718,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B10:E10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9.22"/>
@@ -1754,247 +1729,247 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="16"/>
+        <v>120</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>135</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>139</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>148</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2024,10 +1999,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G18"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B10:E10 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.44"/>
@@ -2037,48 +2012,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>28</v>
@@ -2098,7 +2073,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>8</v>
@@ -2118,7 +2093,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>230</v>
@@ -2138,113 +2113,109 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>174</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2272,10 +2243,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G18"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9.22"/>
@@ -2283,212 +2254,208 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>215</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>214</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>234</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2517,22 +2484,22 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="G1:G18 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B10:E10 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -2540,7 +2507,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -2548,7 +2515,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
@@ -2556,7 +2523,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
@@ -2564,7 +2531,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
@@ -2572,7 +2539,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
@@ -2580,7 +2547,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>7</v>
@@ -2588,7 +2555,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8</v>
